--- a/Code/Results/Cases/Case_3_241/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_241/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9919531425642866</v>
+        <v>1.031113416865132</v>
       </c>
       <c r="D2">
-        <v>1.011404625428826</v>
+        <v>1.032837360698306</v>
       </c>
       <c r="E2">
-        <v>1.004856301587598</v>
+        <v>1.040277374940922</v>
       </c>
       <c r="F2">
-        <v>1.005821734664917</v>
+        <v>1.050289666076885</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042303947204854</v>
+        <v>1.031449058011148</v>
       </c>
       <c r="J2">
-        <v>1.014377226778673</v>
+        <v>1.03625093380873</v>
       </c>
       <c r="K2">
-        <v>1.022707329705423</v>
+        <v>1.035641440296128</v>
       </c>
       <c r="L2">
-        <v>1.016248392496094</v>
+        <v>1.043060179436843</v>
       </c>
       <c r="M2">
-        <v>1.017200554964844</v>
+        <v>1.053044355885616</v>
       </c>
       <c r="N2">
-        <v>1.008468406403946</v>
+        <v>1.016022855641347</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9979861347018146</v>
+        <v>1.032332122473596</v>
       </c>
       <c r="D3">
-        <v>1.015764862470572</v>
+        <v>1.033714814677224</v>
       </c>
       <c r="E3">
-        <v>1.010273268474591</v>
+        <v>1.041432717982604</v>
       </c>
       <c r="F3">
-        <v>1.01230057555681</v>
+        <v>1.051700288617853</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044017544676354</v>
+        <v>1.031686677949418</v>
       </c>
       <c r="J3">
-        <v>1.018531850678281</v>
+        <v>1.037110006337224</v>
       </c>
       <c r="K3">
-        <v>1.026199925664656</v>
+        <v>1.036327566236724</v>
       </c>
       <c r="L3">
-        <v>1.020776366997069</v>
+        <v>1.044025005295094</v>
       </c>
       <c r="M3">
-        <v>1.022778450736307</v>
+        <v>1.054265853680189</v>
       </c>
       <c r="N3">
-        <v>1.009876887829663</v>
+        <v>1.016311031971012</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.001786270770284</v>
+        <v>1.033119910418963</v>
       </c>
       <c r="D4">
-        <v>1.018511430453528</v>
+        <v>1.034281474536655</v>
       </c>
       <c r="E4">
-        <v>1.01369198081845</v>
+        <v>1.042179999297862</v>
       </c>
       <c r="F4">
-        <v>1.016391412063445</v>
+        <v>1.052613168698612</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045080312406615</v>
+        <v>1.031838173716436</v>
       </c>
       <c r="J4">
-        <v>1.021144393668134</v>
+        <v>1.037664607699316</v>
       </c>
       <c r="K4">
-        <v>1.028391456826671</v>
+        <v>1.036769792992018</v>
       </c>
       <c r="L4">
-        <v>1.023627917280247</v>
+        <v>1.044648435221412</v>
       </c>
       <c r="M4">
-        <v>1.02629595188997</v>
+        <v>1.055055833857171</v>
       </c>
       <c r="N4">
-        <v>1.010762201425169</v>
+        <v>1.016496967585057</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.003360203652606</v>
+        <v>1.033450908599552</v>
       </c>
       <c r="D5">
-        <v>1.019648920960478</v>
+        <v>1.034519433200118</v>
       </c>
       <c r="E5">
-        <v>1.015109473664912</v>
+        <v>1.04249408595799</v>
       </c>
       <c r="F5">
-        <v>1.018088106721435</v>
+        <v>1.052996973626629</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045516427589112</v>
+        <v>1.031901321724081</v>
       </c>
       <c r="J5">
-        <v>1.022225337943068</v>
+        <v>1.037897458234611</v>
       </c>
       <c r="K5">
-        <v>1.029297042700501</v>
+        <v>1.036955288944549</v>
       </c>
       <c r="L5">
-        <v>1.024808782131013</v>
+        <v>1.044910317129041</v>
       </c>
       <c r="M5">
-        <v>1.027753764746052</v>
+        <v>1.05538784586918</v>
       </c>
       <c r="N5">
-        <v>1.011128402709115</v>
+        <v>1.016575007611646</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.003623119639623</v>
+        <v>1.033506473712156</v>
       </c>
       <c r="D6">
-        <v>1.019838924536117</v>
+        <v>1.034559371986415</v>
       </c>
       <c r="E6">
-        <v>1.015346346359699</v>
+        <v>1.04254681842271</v>
       </c>
       <c r="F6">
-        <v>1.018371667936455</v>
+        <v>1.053061418020188</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045589037153533</v>
+        <v>1.031911892847079</v>
       </c>
       <c r="J6">
-        <v>1.022405836188477</v>
+        <v>1.037936537090846</v>
       </c>
       <c r="K6">
-        <v>1.029448189814681</v>
+        <v>1.036986410155474</v>
       </c>
       <c r="L6">
-        <v>1.02500602638343</v>
+        <v>1.044954276109564</v>
       </c>
       <c r="M6">
-        <v>1.027997338232796</v>
+        <v>1.055443586614147</v>
       </c>
       <c r="N6">
-        <v>1.011189545698851</v>
+        <v>1.016588103423907</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.001807393168804</v>
+        <v>1.033124333967708</v>
       </c>
       <c r="D7">
-        <v>1.01852669616851</v>
+        <v>1.034284655192632</v>
       </c>
       <c r="E7">
-        <v>1.013710997749831</v>
+        <v>1.042184196413229</v>
       </c>
       <c r="F7">
-        <v>1.016414172614682</v>
+        <v>1.052618296996567</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045086181287739</v>
+        <v>1.031839019627901</v>
       </c>
       <c r="J7">
-        <v>1.021158904563501</v>
+        <v>1.037667720251635</v>
       </c>
       <c r="K7">
-        <v>1.028403618312879</v>
+        <v>1.036772273232087</v>
       </c>
       <c r="L7">
-        <v>1.023643765437717</v>
+        <v>1.044651935315366</v>
       </c>
       <c r="M7">
-        <v>1.02631551225061</v>
+        <v>1.055060270590519</v>
       </c>
       <c r="N7">
-        <v>1.010767117813845</v>
+        <v>1.016498010859356</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9940141997696835</v>
+        <v>1.031525450600251</v>
       </c>
       <c r="D8">
-        <v>1.012894137026809</v>
+        <v>1.03313413111552</v>
       </c>
       <c r="E8">
-        <v>1.006705483915471</v>
+        <v>1.040667892518585</v>
       </c>
       <c r="F8">
-        <v>1.008033025831683</v>
+        <v>1.050766371045253</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042892818521303</v>
+        <v>1.031529830953437</v>
       </c>
       <c r="J8">
-        <v>1.015797473788108</v>
+        <v>1.036541526566387</v>
       </c>
       <c r="K8">
-        <v>1.02390223636054</v>
+        <v>1.035873681200929</v>
       </c>
       <c r="L8">
-        <v>1.017795384840017</v>
+        <v>1.043386429574378</v>
       </c>
       <c r="M8">
-        <v>1.019105273116803</v>
+        <v>1.053457253388382</v>
       </c>
       <c r="N8">
-        <v>1.008949966891596</v>
+        <v>1.016120356982083</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9794312454823254</v>
+        <v>1.028701794608885</v>
       </c>
       <c r="D9">
-        <v>1.002359892619188</v>
+        <v>1.031098203195004</v>
       </c>
       <c r="E9">
-        <v>0.9936522070447414</v>
+        <v>1.037993556363599</v>
       </c>
       <c r="F9">
-        <v>0.992429842196947</v>
+        <v>1.047503766818822</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038658026289129</v>
+        <v>1.030967676582242</v>
       </c>
       <c r="J9">
-        <v>1.005731849240981</v>
+        <v>1.03454718403276</v>
       </c>
       <c r="K9">
-        <v>1.015414797894365</v>
+        <v>1.034276854618077</v>
       </c>
       <c r="L9">
-        <v>1.006849119230377</v>
+        <v>1.04114964458908</v>
       </c>
       <c r="M9">
-        <v>1.005646945702305</v>
+        <v>1.050629268905019</v>
       </c>
       <c r="N9">
-        <v>1.005535745007894</v>
+        <v>1.015450773251903</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9690500283455992</v>
+        <v>1.026815001981489</v>
       </c>
       <c r="D10">
-        <v>0.9948722017032062</v>
+        <v>1.029735098402226</v>
       </c>
       <c r="E10">
-        <v>0.984401704391018</v>
+        <v>1.036208905852318</v>
       </c>
       <c r="F10">
-        <v>0.9813775227435365</v>
+        <v>1.045328987945316</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03555977452657</v>
+        <v>1.030581237374241</v>
       </c>
       <c r="J10">
-        <v>0.9985477906091793</v>
+        <v>1.033210898311329</v>
       </c>
       <c r="K10">
-        <v>1.009334661484919</v>
+        <v>1.033203231086761</v>
       </c>
       <c r="L10">
-        <v>0.9990584202009894</v>
+        <v>1.039653758196734</v>
       </c>
       <c r="M10">
-        <v>0.9960913540056857</v>
+        <v>1.048741582956589</v>
       </c>
       <c r="N10">
-        <v>1.003097686824238</v>
+        <v>1.01500159001646</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9643762175567389</v>
+        <v>1.025996927335122</v>
       </c>
       <c r="D11">
-        <v>0.9915056580519749</v>
+        <v>1.029143462835032</v>
       </c>
       <c r="E11">
-        <v>0.9802478579643108</v>
+        <v>1.035435683912792</v>
       </c>
       <c r="F11">
-        <v>0.976414883664244</v>
+        <v>1.044387308862018</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034146252206871</v>
+        <v>1.030411131501092</v>
       </c>
       <c r="J11">
-        <v>0.9953099333945725</v>
+        <v>1.032630652816476</v>
       </c>
       <c r="K11">
-        <v>1.006589563004711</v>
+        <v>1.032736172226834</v>
       </c>
       <c r="L11">
-        <v>0.995552138041257</v>
+        <v>1.039004880743268</v>
       </c>
       <c r="M11">
-        <v>0.9917957216319762</v>
+        <v>1.04792359524019</v>
       </c>
       <c r="N11">
-        <v>1.001998690579809</v>
+        <v>1.014806418720553</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9626111728802468</v>
+        <v>1.025692892058116</v>
       </c>
       <c r="D12">
-        <v>0.9902351530684216</v>
+        <v>1.028923490883996</v>
       </c>
       <c r="E12">
-        <v>0.9786809048061886</v>
+        <v>1.035148403483291</v>
       </c>
       <c r="F12">
-        <v>0.9745427853355761</v>
+        <v>1.04403752555173</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033609753407111</v>
+        <v>1.030347529097152</v>
       </c>
       <c r="J12">
-        <v>0.9940867384637749</v>
+        <v>1.032414877478747</v>
       </c>
       <c r="K12">
-        <v>1.005551854163174</v>
+        <v>1.032562357820991</v>
       </c>
       <c r="L12">
-        <v>0.9942282688454207</v>
+        <v>1.038763683642784</v>
       </c>
       <c r="M12">
-        <v>0.9901745155163751</v>
+        <v>1.047619663541212</v>
       </c>
       <c r="N12">
-        <v>1.00158350040607</v>
+        <v>1.014733821783496</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9629911293988703</v>
+        <v>1.025758116222522</v>
       </c>
       <c r="D13">
-        <v>0.9905086097751469</v>
+        <v>1.028970685239066</v>
       </c>
       <c r="E13">
-        <v>0.9790181390474804</v>
+        <v>1.035210029385436</v>
       </c>
       <c r="F13">
-        <v>0.9749456954055565</v>
+        <v>1.044112555402961</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033725363584277</v>
+        <v>1.030361190931203</v>
       </c>
       <c r="J13">
-        <v>0.9943500704200428</v>
+        <v>1.032461173203332</v>
       </c>
       <c r="K13">
-        <v>1.005775283600821</v>
+        <v>1.032599656465975</v>
       </c>
       <c r="L13">
-        <v>0.9945132414635323</v>
+        <v>1.038815429205145</v>
       </c>
       <c r="M13">
-        <v>0.9905234613427885</v>
+        <v>1.04768486225998</v>
       </c>
       <c r="N13">
-        <v>1.001672883766453</v>
+        <v>1.014749398682605</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9642309228569805</v>
+        <v>1.025971799089628</v>
       </c>
       <c r="D14">
-        <v>0.9914010543922318</v>
+        <v>1.029125284221638</v>
       </c>
       <c r="E14">
-        <v>0.98011883408353</v>
+        <v>1.035411938695081</v>
       </c>
       <c r="F14">
-        <v>0.9762607353946037</v>
+        <v>1.044358395723528</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034102142656627</v>
+        <v>1.030405882626961</v>
       </c>
       <c r="J14">
-        <v>0.9952092508374384</v>
+        <v>1.032612821797472</v>
       </c>
       <c r="K14">
-        <v>1.006504161269594</v>
+        <v>1.032721811372717</v>
       </c>
       <c r="L14">
-        <v>0.9954431541449641</v>
+        <v>1.038984946902871</v>
       </c>
       <c r="M14">
-        <v>0.991662246392186</v>
+        <v>1.04789847410156</v>
       </c>
       <c r="N14">
-        <v>1.001964515984936</v>
+        <v>1.014800419912155</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9649908920469868</v>
+        <v>1.026103434063577</v>
       </c>
       <c r="D15">
-        <v>0.9919482234987088</v>
+        <v>1.029220509599027</v>
       </c>
       <c r="E15">
-        <v>0.9807937690773331</v>
+        <v>1.035536332143108</v>
       </c>
       <c r="F15">
-        <v>0.9770670958496505</v>
+        <v>1.044509865705588</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034332750586973</v>
+        <v>1.030433363314377</v>
       </c>
       <c r="J15">
-        <v>0.9957358575712828</v>
+        <v>1.032706224794886</v>
       </c>
       <c r="K15">
-        <v>1.006950816835217</v>
+        <v>1.032797031540299</v>
       </c>
       <c r="L15">
-        <v>0.9960132095555119</v>
+        <v>1.039089369069661</v>
       </c>
       <c r="M15">
-        <v>0.9923604353123678</v>
+        <v>1.048030074764182</v>
       </c>
       <c r="N15">
-        <v>1.002143261234518</v>
+        <v>1.014831842288818</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9693562718540794</v>
+        <v>1.026869271826195</v>
       </c>
       <c r="D16">
-        <v>0.9950928972878278</v>
+        <v>1.029774333636567</v>
       </c>
       <c r="E16">
-        <v>0.9846741116662272</v>
+        <v>1.036260212190391</v>
       </c>
       <c r="F16">
-        <v>0.9817029690670334</v>
+        <v>1.045391484053825</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035652015909887</v>
+        <v>1.030592468222937</v>
       </c>
       <c r="J16">
-        <v>0.9987598811282632</v>
+        <v>1.033249372870992</v>
       </c>
       <c r="K16">
-        <v>1.009514379711255</v>
+        <v>1.033234182338281</v>
       </c>
       <c r="L16">
-        <v>0.9992881953451134</v>
+        <v>1.039696797637182</v>
       </c>
       <c r="M16">
-        <v>0.9963729561994926</v>
+        <v>1.04879585702293</v>
       </c>
       <c r="N16">
-        <v>1.003169672399027</v>
+        <v>1.015014528677577</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9720452827983088</v>
+        <v>1.027349369730185</v>
       </c>
       <c r="D17">
-        <v>0.9970312777596801</v>
+        <v>1.030121356366784</v>
       </c>
       <c r="E17">
-        <v>0.9870672623932416</v>
+        <v>1.036714158839086</v>
       </c>
       <c r="F17">
-        <v>0.9845621016544333</v>
+        <v>1.045944501055267</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036459857588934</v>
+        <v>1.030691527141455</v>
       </c>
       <c r="J17">
-        <v>1.000621787423622</v>
+        <v>1.033589638718404</v>
       </c>
       <c r="K17">
-        <v>1.011091560428295</v>
+        <v>1.033507812705638</v>
       </c>
       <c r="L17">
-        <v>1.00130591390862</v>
+        <v>1.040077512187288</v>
       </c>
       <c r="M17">
-        <v>0.9988463381422239</v>
+        <v>1.049276047025031</v>
       </c>
       <c r="N17">
-        <v>1.003801604412393</v>
+        <v>1.015128942641409</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9735966539185541</v>
+        <v>1.027629298655574</v>
       </c>
       <c r="D18">
-        <v>0.9981500045332399</v>
+        <v>1.030323633665831</v>
       </c>
       <c r="E18">
-        <v>0.9884489634762926</v>
+        <v>1.036978894384994</v>
       </c>
       <c r="F18">
-        <v>0.9862128744820867</v>
+        <v>1.046267068186128</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036924161795513</v>
+        <v>1.030749038811454</v>
       </c>
       <c r="J18">
-        <v>1.00169564436815</v>
+        <v>1.033787953395551</v>
       </c>
       <c r="K18">
-        <v>1.012000747900283</v>
+        <v>1.033667207131372</v>
       </c>
       <c r="L18">
-        <v>1.002470106872835</v>
+        <v>1.040299465876172</v>
       </c>
       <c r="M18">
-        <v>1.000273912501709</v>
+        <v>1.049556075371252</v>
       </c>
       <c r="N18">
-        <v>1.004166055892485</v>
+        <v>1.015195613579289</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9741227950199818</v>
+        <v>1.027724729640601</v>
       </c>
       <c r="D19">
-        <v>0.9985294819302543</v>
+        <v>1.030392582111627</v>
       </c>
       <c r="E19">
-        <v>0.988917732213575</v>
+        <v>1.037069155010031</v>
       </c>
       <c r="F19">
-        <v>0.9867729392967752</v>
+        <v>1.046377055643927</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037081326262451</v>
+        <v>1.030768603411467</v>
       </c>
       <c r="J19">
-        <v>1.002059779570195</v>
+        <v>1.033855547073244</v>
       </c>
       <c r="K19">
-        <v>1.012308966789742</v>
+        <v>1.033721521015211</v>
       </c>
       <c r="L19">
-        <v>1.002864954644452</v>
+        <v>1.040375127653179</v>
       </c>
       <c r="M19">
-        <v>1.000758169859371</v>
+        <v>1.049651548004602</v>
       </c>
       <c r="N19">
-        <v>1.00428963501319</v>
+        <v>1.015218335676403</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.971758559128124</v>
+        <v>1.02729787055883</v>
       </c>
       <c r="D20">
-        <v>0.9968245477825914</v>
+        <v>1.030084138106909</v>
       </c>
       <c r="E20">
-        <v>0.9868119790480995</v>
+        <v>1.036665459217177</v>
       </c>
       <c r="F20">
-        <v>0.9842571079299141</v>
+        <v>1.045885167421964</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036373901558174</v>
+        <v>1.030680926753227</v>
       </c>
       <c r="J20">
-        <v>1.000423290161389</v>
+        <v>1.033553147631532</v>
       </c>
       <c r="K20">
-        <v>1.010923464451647</v>
+        <v>1.033478476442102</v>
       </c>
       <c r="L20">
-        <v>1.001090756736938</v>
+        <v>1.040036676585284</v>
       </c>
       <c r="M20">
-        <v>0.9985825432554252</v>
+        <v>1.049224533244439</v>
       </c>
       <c r="N20">
-        <v>1.003734235927559</v>
+        <v>1.015116673812747</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9638666530084401</v>
+        <v>1.025908879420014</v>
       </c>
       <c r="D21">
-        <v>0.9911388158526614</v>
+        <v>1.029079764543283</v>
       </c>
       <c r="E21">
-        <v>0.9797953851232322</v>
+        <v>1.035352483428616</v>
       </c>
       <c r="F21">
-        <v>0.9758743012614869</v>
+        <v>1.044286001957252</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033991512289025</v>
+        <v>1.030392733566431</v>
       </c>
       <c r="J21">
-        <v>0.9949568219180706</v>
+        <v>1.032568171883743</v>
       </c>
       <c r="K21">
-        <v>1.006290033496169</v>
+        <v>1.032685848862572</v>
       </c>
       <c r="L21">
-        <v>0.9951699240028812</v>
+        <v>1.038935033020692</v>
       </c>
       <c r="M21">
-        <v>0.9913276258392486</v>
+        <v>1.04783557337836</v>
       </c>
       <c r="N21">
-        <v>1.0018788340956</v>
+        <v>1.014785398242549</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C22">
-        <v>0.9587357748769455</v>
+        <v>1.025034603790201</v>
       </c>
       <c r="D22">
-        <v>0.9874473654295652</v>
+        <v>1.028447046779172</v>
       </c>
       <c r="E22">
-        <v>0.9752437402720207</v>
+        <v>1.034526549097657</v>
       </c>
       <c r="F22">
-        <v>0.970436086124284</v>
+        <v>1.043280530942875</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032426972680139</v>
+        <v>1.03020911920151</v>
       </c>
       <c r="J22">
-        <v>0.991400354330617</v>
+        <v>1.031947452274098</v>
       </c>
       <c r="K22">
-        <v>1.003271662395032</v>
+        <v>1.03218559426623</v>
       </c>
       <c r="L22">
-        <v>0.9913221102439602</v>
+        <v>1.038241371512682</v>
       </c>
       <c r="M22">
-        <v>0.9866168755868724</v>
+        <v>1.046961729921465</v>
       </c>
       <c r="N22">
-        <v>1.000671649930202</v>
+        <v>1.014576523820779</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9614725393058036</v>
+        <v>1.025498166190807</v>
       </c>
       <c r="D23">
-        <v>0.9894158119880303</v>
+        <v>1.028782579365439</v>
       </c>
       <c r="E23">
-        <v>0.9776705601114234</v>
+        <v>1.03496443272582</v>
       </c>
       <c r="F23">
-        <v>0.9733356637410391</v>
+        <v>1.043813552635479</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033262913946398</v>
+        <v>1.030306685842244</v>
       </c>
       <c r="J23">
-        <v>0.9932975431060541</v>
+        <v>1.032276643414703</v>
       </c>
       <c r="K23">
-        <v>1.004882151201338</v>
+        <v>1.032450969128791</v>
       </c>
       <c r="L23">
-        <v>0.9933743229997652</v>
+        <v>1.038609191613887</v>
       </c>
       <c r="M23">
-        <v>0.9891289668792297</v>
+        <v>1.047425024079205</v>
       </c>
       <c r="N23">
-        <v>1.001315621211772</v>
+        <v>1.014687308095011</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9718881698474033</v>
+        <v>1.027321141139022</v>
       </c>
       <c r="D24">
-        <v>0.9969179968291162</v>
+        <v>1.030100955854263</v>
       </c>
       <c r="E24">
-        <v>0.9869273743045752</v>
+        <v>1.03668746461552</v>
       </c>
       <c r="F24">
-        <v>0.9843949735644357</v>
+        <v>1.045911977731572</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03641276265212</v>
+        <v>1.030685717439619</v>
       </c>
       <c r="J24">
-        <v>1.000513020008027</v>
+        <v>1.033569636866888</v>
       </c>
       <c r="K24">
-        <v>1.010999452938097</v>
+        <v>1.033491732884276</v>
       </c>
       <c r="L24">
-        <v>1.001188016161004</v>
+        <v>1.040055128777967</v>
       </c>
       <c r="M24">
-        <v>0.9987017873574213</v>
+        <v>1.049247810284712</v>
       </c>
       <c r="N24">
-        <v>1.003764689616844</v>
+        <v>1.015122217768508</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9833105606764521</v>
+        <v>1.029432532199892</v>
       </c>
       <c r="D25">
-        <v>1.005160806570715</v>
+        <v>1.031625560180302</v>
       </c>
       <c r="E25">
-        <v>0.9971177600945066</v>
+        <v>1.038685236491995</v>
       </c>
       <c r="F25">
-        <v>0.9965711941565828</v>
+        <v>1.048347162453626</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039799213876283</v>
+        <v>1.031115062177127</v>
       </c>
       <c r="J25">
-        <v>1.008412947439103</v>
+        <v>1.035063946808031</v>
       </c>
       <c r="K25">
-        <v>1.017679532467487</v>
+        <v>1.034691266592681</v>
       </c>
       <c r="L25">
-        <v>1.009760984510249</v>
+        <v>1.041728725819444</v>
       </c>
       <c r="M25">
-        <v>1.009222972141436</v>
+        <v>1.051360774726659</v>
       </c>
       <c r="N25">
-        <v>1.006445418925608</v>
+        <v>1.015624366864009</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_241/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_241/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031113416865132</v>
+        <v>0.9919531425642855</v>
       </c>
       <c r="D2">
-        <v>1.032837360698306</v>
+        <v>1.011404625428825</v>
       </c>
       <c r="E2">
-        <v>1.040277374940922</v>
+        <v>1.004856301587596</v>
       </c>
       <c r="F2">
-        <v>1.050289666076885</v>
+        <v>1.005821734664915</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031449058011148</v>
+        <v>1.042303947204853</v>
       </c>
       <c r="J2">
-        <v>1.03625093380873</v>
+        <v>1.014377226778672</v>
       </c>
       <c r="K2">
-        <v>1.035641440296128</v>
+        <v>1.022707329705422</v>
       </c>
       <c r="L2">
-        <v>1.043060179436843</v>
+        <v>1.016248392496093</v>
       </c>
       <c r="M2">
-        <v>1.053044355885616</v>
+        <v>1.017200554964842</v>
       </c>
       <c r="N2">
-        <v>1.016022855641347</v>
+        <v>1.008468406403946</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032332122473596</v>
+        <v>0.9979861347018146</v>
       </c>
       <c r="D3">
-        <v>1.033714814677224</v>
+        <v>1.015764862470572</v>
       </c>
       <c r="E3">
-        <v>1.041432717982604</v>
+        <v>1.010273268474591</v>
       </c>
       <c r="F3">
-        <v>1.051700288617853</v>
+        <v>1.01230057555681</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031686677949418</v>
+        <v>1.044017544676354</v>
       </c>
       <c r="J3">
-        <v>1.037110006337224</v>
+        <v>1.018531850678281</v>
       </c>
       <c r="K3">
-        <v>1.036327566236724</v>
+        <v>1.026199925664656</v>
       </c>
       <c r="L3">
-        <v>1.044025005295094</v>
+        <v>1.020776366997068</v>
       </c>
       <c r="M3">
-        <v>1.054265853680189</v>
+        <v>1.022778450736308</v>
       </c>
       <c r="N3">
-        <v>1.016311031971012</v>
+        <v>1.009876887829663</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033119910418963</v>
+        <v>1.001786270770284</v>
       </c>
       <c r="D4">
-        <v>1.034281474536655</v>
+        <v>1.018511430453528</v>
       </c>
       <c r="E4">
-        <v>1.042179999297862</v>
+        <v>1.01369198081845</v>
       </c>
       <c r="F4">
-        <v>1.052613168698612</v>
+        <v>1.016391412063445</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031838173716436</v>
+        <v>1.045080312406615</v>
       </c>
       <c r="J4">
-        <v>1.037664607699316</v>
+        <v>1.021144393668135</v>
       </c>
       <c r="K4">
-        <v>1.036769792992018</v>
+        <v>1.028391456826671</v>
       </c>
       <c r="L4">
-        <v>1.044648435221412</v>
+        <v>1.023627917280247</v>
       </c>
       <c r="M4">
-        <v>1.055055833857171</v>
+        <v>1.02629595188997</v>
       </c>
       <c r="N4">
-        <v>1.016496967585057</v>
+        <v>1.01076220142517</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033450908599552</v>
+        <v>1.003360203652606</v>
       </c>
       <c r="D5">
-        <v>1.034519433200118</v>
+        <v>1.019648920960479</v>
       </c>
       <c r="E5">
-        <v>1.04249408595799</v>
+        <v>1.015109473664912</v>
       </c>
       <c r="F5">
-        <v>1.052996973626629</v>
+        <v>1.018088106721434</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031901321724081</v>
+        <v>1.045516427589112</v>
       </c>
       <c r="J5">
-        <v>1.037897458234611</v>
+        <v>1.022225337943068</v>
       </c>
       <c r="K5">
-        <v>1.036955288944549</v>
+        <v>1.029297042700501</v>
       </c>
       <c r="L5">
-        <v>1.044910317129041</v>
+        <v>1.024808782131013</v>
       </c>
       <c r="M5">
-        <v>1.05538784586918</v>
+        <v>1.027753764746052</v>
       </c>
       <c r="N5">
-        <v>1.016575007611646</v>
+        <v>1.011128402709115</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033506473712156</v>
+        <v>1.003623119639624</v>
       </c>
       <c r="D6">
-        <v>1.034559371986415</v>
+        <v>1.019838924536118</v>
       </c>
       <c r="E6">
-        <v>1.04254681842271</v>
+        <v>1.015346346359699</v>
       </c>
       <c r="F6">
-        <v>1.053061418020188</v>
+        <v>1.018371667936456</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031911892847079</v>
+        <v>1.045589037153533</v>
       </c>
       <c r="J6">
-        <v>1.037936537090846</v>
+        <v>1.022405836188478</v>
       </c>
       <c r="K6">
-        <v>1.036986410155474</v>
+        <v>1.029448189814682</v>
       </c>
       <c r="L6">
-        <v>1.044954276109564</v>
+        <v>1.02500602638343</v>
       </c>
       <c r="M6">
-        <v>1.055443586614147</v>
+        <v>1.027997338232796</v>
       </c>
       <c r="N6">
-        <v>1.016588103423907</v>
+        <v>1.011189545698851</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033124333967708</v>
+        <v>1.001807393168803</v>
       </c>
       <c r="D7">
-        <v>1.034284655192632</v>
+        <v>1.018526696168509</v>
       </c>
       <c r="E7">
-        <v>1.042184196413229</v>
+        <v>1.01371099774983</v>
       </c>
       <c r="F7">
-        <v>1.052618296996567</v>
+        <v>1.016414172614681</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031839019627901</v>
+        <v>1.045086181287738</v>
       </c>
       <c r="J7">
-        <v>1.037667720251635</v>
+        <v>1.0211589045635</v>
       </c>
       <c r="K7">
-        <v>1.036772273232087</v>
+        <v>1.028403618312878</v>
       </c>
       <c r="L7">
-        <v>1.044651935315366</v>
+        <v>1.023643765437716</v>
       </c>
       <c r="M7">
-        <v>1.055060270590519</v>
+        <v>1.026315512250609</v>
       </c>
       <c r="N7">
-        <v>1.016498010859356</v>
+        <v>1.010767117813844</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031525450600251</v>
+        <v>0.9940141997696823</v>
       </c>
       <c r="D8">
-        <v>1.03313413111552</v>
+        <v>1.012894137026809</v>
       </c>
       <c r="E8">
-        <v>1.040667892518585</v>
+        <v>1.00670548391547</v>
       </c>
       <c r="F8">
-        <v>1.050766371045253</v>
+        <v>1.008033025831681</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031529830953437</v>
+        <v>1.042892818521302</v>
       </c>
       <c r="J8">
-        <v>1.036541526566387</v>
+        <v>1.015797473788106</v>
       </c>
       <c r="K8">
-        <v>1.035873681200929</v>
+        <v>1.023902236360539</v>
       </c>
       <c r="L8">
-        <v>1.043386429574378</v>
+        <v>1.017795384840015</v>
       </c>
       <c r="M8">
-        <v>1.053457253388382</v>
+        <v>1.019105273116801</v>
       </c>
       <c r="N8">
-        <v>1.016120356982083</v>
+        <v>1.008949966891596</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028701794608885</v>
+        <v>0.9794312454823259</v>
       </c>
       <c r="D9">
-        <v>1.031098203195004</v>
+        <v>1.002359892619189</v>
       </c>
       <c r="E9">
-        <v>1.037993556363599</v>
+        <v>0.9936522070447419</v>
       </c>
       <c r="F9">
-        <v>1.047503766818822</v>
+        <v>0.9924298421969475</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030967676582242</v>
+        <v>1.038658026289129</v>
       </c>
       <c r="J9">
-        <v>1.03454718403276</v>
+        <v>1.005731849240981</v>
       </c>
       <c r="K9">
-        <v>1.034276854618077</v>
+        <v>1.015414797894365</v>
       </c>
       <c r="L9">
-        <v>1.04114964458908</v>
+        <v>1.006849119230377</v>
       </c>
       <c r="M9">
-        <v>1.050629268905019</v>
+        <v>1.005646945702305</v>
       </c>
       <c r="N9">
-        <v>1.015450773251903</v>
+        <v>1.005535745007894</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026815001981489</v>
+        <v>0.9690500283456001</v>
       </c>
       <c r="D10">
-        <v>1.029735098402226</v>
+        <v>0.9948722017032067</v>
       </c>
       <c r="E10">
-        <v>1.036208905852318</v>
+        <v>0.9844017043910187</v>
       </c>
       <c r="F10">
-        <v>1.045328987945316</v>
+        <v>0.9813775227435376</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030581237374241</v>
+        <v>1.03555977452657</v>
       </c>
       <c r="J10">
-        <v>1.033210898311329</v>
+        <v>0.9985477906091799</v>
       </c>
       <c r="K10">
-        <v>1.033203231086761</v>
+        <v>1.009334661484919</v>
       </c>
       <c r="L10">
-        <v>1.039653758196734</v>
+        <v>0.9990584202009901</v>
       </c>
       <c r="M10">
-        <v>1.048741582956589</v>
+        <v>0.9960913540056866</v>
       </c>
       <c r="N10">
-        <v>1.01500159001646</v>
+        <v>1.003097686824238</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025996927335122</v>
+        <v>0.9643762175567391</v>
       </c>
       <c r="D11">
-        <v>1.029143462835032</v>
+        <v>0.9915056580519751</v>
       </c>
       <c r="E11">
-        <v>1.035435683912792</v>
+        <v>0.9802478579643106</v>
       </c>
       <c r="F11">
-        <v>1.044387308862018</v>
+        <v>0.9764148836642441</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030411131501092</v>
+        <v>1.034146252206871</v>
       </c>
       <c r="J11">
-        <v>1.032630652816476</v>
+        <v>0.9953099333945726</v>
       </c>
       <c r="K11">
-        <v>1.032736172226834</v>
+        <v>1.006589563004711</v>
       </c>
       <c r="L11">
-        <v>1.039004880743268</v>
+        <v>0.9955521380412569</v>
       </c>
       <c r="M11">
-        <v>1.04792359524019</v>
+        <v>0.9917957216319759</v>
       </c>
       <c r="N11">
-        <v>1.014806418720553</v>
+        <v>1.001998690579809</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025692892058116</v>
+        <v>0.9626111728802466</v>
       </c>
       <c r="D12">
-        <v>1.028923490883996</v>
+        <v>0.9902351530684215</v>
       </c>
       <c r="E12">
-        <v>1.035148403483291</v>
+        <v>0.9786809048061886</v>
       </c>
       <c r="F12">
-        <v>1.04403752555173</v>
+        <v>0.9745427853355758</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030347529097152</v>
+        <v>1.033609753407111</v>
       </c>
       <c r="J12">
-        <v>1.032414877478747</v>
+        <v>0.9940867384637749</v>
       </c>
       <c r="K12">
-        <v>1.032562357820991</v>
+        <v>1.005551854163173</v>
       </c>
       <c r="L12">
-        <v>1.038763683642784</v>
+        <v>0.9942282688454207</v>
       </c>
       <c r="M12">
-        <v>1.047619663541212</v>
+        <v>0.9901745155163747</v>
       </c>
       <c r="N12">
-        <v>1.014733821783496</v>
+        <v>1.001583500406069</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025758116222522</v>
+        <v>0.9629911293988714</v>
       </c>
       <c r="D13">
-        <v>1.028970685239066</v>
+        <v>0.9905086097751478</v>
       </c>
       <c r="E13">
-        <v>1.035210029385436</v>
+        <v>0.9790181390474809</v>
       </c>
       <c r="F13">
-        <v>1.044112555402961</v>
+        <v>0.9749456954055573</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030361190931203</v>
+        <v>1.033725363584277</v>
       </c>
       <c r="J13">
-        <v>1.032461173203332</v>
+        <v>0.9943500704200436</v>
       </c>
       <c r="K13">
-        <v>1.032599656465975</v>
+        <v>1.005775283600822</v>
       </c>
       <c r="L13">
-        <v>1.038815429205145</v>
+        <v>0.9945132414635329</v>
       </c>
       <c r="M13">
-        <v>1.04768486225998</v>
+        <v>0.9905234613427891</v>
       </c>
       <c r="N13">
-        <v>1.014749398682605</v>
+        <v>1.001672883766453</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025971799089628</v>
+        <v>0.9642309228569805</v>
       </c>
       <c r="D14">
-        <v>1.029125284221638</v>
+        <v>0.9914010543922317</v>
       </c>
       <c r="E14">
-        <v>1.035411938695081</v>
+        <v>0.9801188340835297</v>
       </c>
       <c r="F14">
-        <v>1.044358395723528</v>
+        <v>0.9762607353946035</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030405882626961</v>
+        <v>1.034102142656627</v>
       </c>
       <c r="J14">
-        <v>1.032612821797472</v>
+        <v>0.9952092508374381</v>
       </c>
       <c r="K14">
-        <v>1.032721811372717</v>
+        <v>1.006504161269594</v>
       </c>
       <c r="L14">
-        <v>1.038984946902871</v>
+        <v>0.995443154144964</v>
       </c>
       <c r="M14">
-        <v>1.04789847410156</v>
+        <v>0.9916622463921858</v>
       </c>
       <c r="N14">
-        <v>1.014800419912155</v>
+        <v>1.001964515984936</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026103434063577</v>
+        <v>0.9649908920469877</v>
       </c>
       <c r="D15">
-        <v>1.029220509599027</v>
+        <v>0.99194822349871</v>
       </c>
       <c r="E15">
-        <v>1.035536332143108</v>
+        <v>0.9807937690773338</v>
       </c>
       <c r="F15">
-        <v>1.044509865705588</v>
+        <v>0.9770670958496512</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030433363314377</v>
+        <v>1.034332750586973</v>
       </c>
       <c r="J15">
-        <v>1.032706224794886</v>
+        <v>0.9957358575712837</v>
       </c>
       <c r="K15">
-        <v>1.032797031540299</v>
+        <v>1.006950816835218</v>
       </c>
       <c r="L15">
-        <v>1.039089369069661</v>
+        <v>0.9960132095555126</v>
       </c>
       <c r="M15">
-        <v>1.048030074764182</v>
+        <v>0.9923604353123687</v>
       </c>
       <c r="N15">
-        <v>1.014831842288818</v>
+        <v>1.002143261234518</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026869271826195</v>
+        <v>0.9693562718540798</v>
       </c>
       <c r="D16">
-        <v>1.029774333636567</v>
+        <v>0.9950928972878282</v>
       </c>
       <c r="E16">
-        <v>1.036260212190391</v>
+        <v>0.984674111666228</v>
       </c>
       <c r="F16">
-        <v>1.045391484053825</v>
+        <v>0.9817029690670339</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030592468222937</v>
+        <v>1.035652015909887</v>
       </c>
       <c r="J16">
-        <v>1.033249372870992</v>
+        <v>0.9987598811282637</v>
       </c>
       <c r="K16">
-        <v>1.033234182338281</v>
+        <v>1.009514379711256</v>
       </c>
       <c r="L16">
-        <v>1.039696797637182</v>
+        <v>0.9992881953451139</v>
       </c>
       <c r="M16">
-        <v>1.04879585702293</v>
+        <v>0.9963729561994932</v>
       </c>
       <c r="N16">
-        <v>1.015014528677577</v>
+        <v>1.003169672399027</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027349369730185</v>
+        <v>0.9720452827983069</v>
       </c>
       <c r="D17">
-        <v>1.030121356366784</v>
+        <v>0.9970312777596786</v>
       </c>
       <c r="E17">
-        <v>1.036714158839086</v>
+        <v>0.9870672623932394</v>
       </c>
       <c r="F17">
-        <v>1.045944501055267</v>
+        <v>0.9845621016544311</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030691527141455</v>
+        <v>1.036459857588933</v>
       </c>
       <c r="J17">
-        <v>1.033589638718404</v>
+        <v>1.00062178742362</v>
       </c>
       <c r="K17">
-        <v>1.033507812705638</v>
+        <v>1.011091560428293</v>
       </c>
       <c r="L17">
-        <v>1.040077512187288</v>
+        <v>1.001305913908618</v>
       </c>
       <c r="M17">
-        <v>1.049276047025031</v>
+        <v>0.9988463381422218</v>
       </c>
       <c r="N17">
-        <v>1.015128942641409</v>
+        <v>1.003801604412393</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027629298655574</v>
+        <v>0.973596653918554</v>
       </c>
       <c r="D18">
-        <v>1.030323633665831</v>
+        <v>0.9981500045332398</v>
       </c>
       <c r="E18">
-        <v>1.036978894384994</v>
+        <v>0.9884489634762929</v>
       </c>
       <c r="F18">
-        <v>1.046267068186128</v>
+        <v>0.9862128744820872</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030749038811454</v>
+        <v>1.036924161795513</v>
       </c>
       <c r="J18">
-        <v>1.033787953395551</v>
+        <v>1.00169564436815</v>
       </c>
       <c r="K18">
-        <v>1.033667207131372</v>
+        <v>1.012000747900283</v>
       </c>
       <c r="L18">
-        <v>1.040299465876172</v>
+        <v>1.002470106872835</v>
       </c>
       <c r="M18">
-        <v>1.049556075371252</v>
+        <v>1.000273912501709</v>
       </c>
       <c r="N18">
-        <v>1.015195613579289</v>
+        <v>1.004166055892485</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027724729640601</v>
+        <v>0.9741227950199819</v>
       </c>
       <c r="D19">
-        <v>1.030392582111627</v>
+        <v>0.9985294819302543</v>
       </c>
       <c r="E19">
-        <v>1.037069155010031</v>
+        <v>0.9889177322135747</v>
       </c>
       <c r="F19">
-        <v>1.046377055643927</v>
+        <v>0.9867729392967749</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030768603411467</v>
+        <v>1.037081326262452</v>
       </c>
       <c r="J19">
-        <v>1.033855547073244</v>
+        <v>1.002059779570195</v>
       </c>
       <c r="K19">
-        <v>1.033721521015211</v>
+        <v>1.012308966789742</v>
       </c>
       <c r="L19">
-        <v>1.040375127653179</v>
+        <v>1.002864954644451</v>
       </c>
       <c r="M19">
-        <v>1.049651548004602</v>
+        <v>1.000758169859371</v>
       </c>
       <c r="N19">
-        <v>1.015218335676403</v>
+        <v>1.00428963501319</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02729787055883</v>
+        <v>0.9717585591281231</v>
       </c>
       <c r="D20">
-        <v>1.030084138106909</v>
+        <v>0.996824547782591</v>
       </c>
       <c r="E20">
-        <v>1.036665459217177</v>
+        <v>0.9868119790480985</v>
       </c>
       <c r="F20">
-        <v>1.045885167421964</v>
+        <v>0.9842571079299132</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030680926753227</v>
+        <v>1.036373901558173</v>
       </c>
       <c r="J20">
-        <v>1.033553147631532</v>
+        <v>1.000423290161388</v>
       </c>
       <c r="K20">
-        <v>1.033478476442102</v>
+        <v>1.010923464451647</v>
       </c>
       <c r="L20">
-        <v>1.040036676585284</v>
+        <v>1.001090756736937</v>
       </c>
       <c r="M20">
-        <v>1.049224533244439</v>
+        <v>0.9985825432554243</v>
       </c>
       <c r="N20">
-        <v>1.015116673812747</v>
+        <v>1.003734235927559</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025908879420014</v>
+        <v>0.9638666530084398</v>
       </c>
       <c r="D21">
-        <v>1.029079764543283</v>
+        <v>0.9911388158526612</v>
       </c>
       <c r="E21">
-        <v>1.035352483428616</v>
+        <v>0.9797953851232317</v>
       </c>
       <c r="F21">
-        <v>1.044286001957252</v>
+        <v>0.9758743012614861</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030392733566431</v>
+        <v>1.033991512289024</v>
       </c>
       <c r="J21">
-        <v>1.032568171883743</v>
+        <v>0.99495682191807</v>
       </c>
       <c r="K21">
-        <v>1.032685848862572</v>
+        <v>1.006290033496168</v>
       </c>
       <c r="L21">
-        <v>1.038935033020692</v>
+        <v>0.9951699240028807</v>
       </c>
       <c r="M21">
-        <v>1.04783557337836</v>
+        <v>0.9913276258392478</v>
       </c>
       <c r="N21">
-        <v>1.014785398242549</v>
+        <v>1.0018788340956</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025034603790201</v>
+        <v>0.9587357748769462</v>
       </c>
       <c r="D22">
-        <v>1.028447046779172</v>
+        <v>0.9874473654295662</v>
       </c>
       <c r="E22">
-        <v>1.034526549097657</v>
+        <v>0.9752437402720218</v>
       </c>
       <c r="F22">
-        <v>1.043280530942875</v>
+        <v>0.9704360861242854</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03020911920151</v>
+        <v>1.032426972680139</v>
       </c>
       <c r="J22">
-        <v>1.031947452274098</v>
+        <v>0.9914003543306178</v>
       </c>
       <c r="K22">
-        <v>1.03218559426623</v>
+        <v>1.003271662395033</v>
       </c>
       <c r="L22">
-        <v>1.038241371512682</v>
+        <v>0.9913221102439613</v>
       </c>
       <c r="M22">
-        <v>1.046961729921465</v>
+        <v>0.9866168755868739</v>
       </c>
       <c r="N22">
-        <v>1.014576523820779</v>
+        <v>1.000671649930203</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025498166190807</v>
+        <v>0.9614725393058055</v>
       </c>
       <c r="D23">
-        <v>1.028782579365439</v>
+        <v>0.9894158119880321</v>
       </c>
       <c r="E23">
-        <v>1.03496443272582</v>
+        <v>0.9776705601114255</v>
       </c>
       <c r="F23">
-        <v>1.043813552635479</v>
+        <v>0.9733356637410407</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030306685842244</v>
+        <v>1.033262913946399</v>
       </c>
       <c r="J23">
-        <v>1.032276643414703</v>
+        <v>0.993297543106056</v>
       </c>
       <c r="K23">
-        <v>1.032450969128791</v>
+        <v>1.004882151201339</v>
       </c>
       <c r="L23">
-        <v>1.038609191613887</v>
+        <v>0.9933743229997668</v>
       </c>
       <c r="M23">
-        <v>1.047425024079205</v>
+        <v>0.9891289668792314</v>
       </c>
       <c r="N23">
-        <v>1.014687308095011</v>
+        <v>1.001315621211773</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027321141139022</v>
+        <v>0.9718881698474005</v>
       </c>
       <c r="D24">
-        <v>1.030100955854263</v>
+        <v>0.9969179968291138</v>
       </c>
       <c r="E24">
-        <v>1.03668746461552</v>
+        <v>0.9869273743045719</v>
       </c>
       <c r="F24">
-        <v>1.045911977731572</v>
+        <v>0.9843949735644318</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030685717439619</v>
+        <v>1.036412762652119</v>
       </c>
       <c r="J24">
-        <v>1.033569636866888</v>
+        <v>1.000513020008024</v>
       </c>
       <c r="K24">
-        <v>1.033491732884276</v>
+        <v>1.010999452938095</v>
       </c>
       <c r="L24">
-        <v>1.040055128777967</v>
+        <v>1.001188016161001</v>
       </c>
       <c r="M24">
-        <v>1.049247810284712</v>
+        <v>0.9987017873574175</v>
       </c>
       <c r="N24">
-        <v>1.015122217768508</v>
+        <v>1.003764689616843</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029432532199892</v>
+        <v>0.9833105606764515</v>
       </c>
       <c r="D25">
-        <v>1.031625560180302</v>
+        <v>1.005160806570715</v>
       </c>
       <c r="E25">
-        <v>1.038685236491995</v>
+        <v>0.9971177600945063</v>
       </c>
       <c r="F25">
-        <v>1.048347162453626</v>
+        <v>0.9965711941565824</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031115062177127</v>
+        <v>1.039799213876283</v>
       </c>
       <c r="J25">
-        <v>1.035063946808031</v>
+        <v>1.008412947439102</v>
       </c>
       <c r="K25">
-        <v>1.034691266592681</v>
+        <v>1.017679532467487</v>
       </c>
       <c r="L25">
-        <v>1.041728725819444</v>
+        <v>1.009760984510249</v>
       </c>
       <c r="M25">
-        <v>1.051360774726659</v>
+        <v>1.009222972141436</v>
       </c>
       <c r="N25">
-        <v>1.015624366864009</v>
+        <v>1.006445418925608</v>
       </c>
     </row>
   </sheetData>
